--- a/studies/September 2023 - Western Cape Breton/data/SEP2023.xlsx
+++ b/studies/September 2023 - Western Cape Breton/data/SEP2023.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SuretteTJ\Desktop\github\snow-crab-measurement-project\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SuretteTJ\Desktop\github\snow-crab-measurement-project\studies\September 2023 - Western Cape Breton\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CA03B83-C467-46C2-9E25-564EF88299C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D356880F-B6D9-4952-AF7E-90E11E7C69AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="750" yWindow="465" windowWidth="26880" windowHeight="14880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,9 +44,6 @@
     <t>xxxxxxxxxx</t>
   </si>
   <si>
-    <t>Moriyasu, LandryK, Boudreau</t>
-  </si>
-  <si>
     <t>46 59.9397</t>
   </si>
   <si>
@@ -62,9 +59,6 @@
     <t>crab from ghost gear ; placed in chiller</t>
   </si>
   <si>
-    <t>445, 446</t>
-  </si>
-  <si>
     <t>xxxx1xxxxx</t>
   </si>
   <si>
@@ -74,72 +68,9 @@
     <t>xxxx1xxx1x</t>
   </si>
   <si>
-    <t>Moriyasu, LandryK, Allain</t>
-  </si>
-  <si>
     <t>449 to 452</t>
   </si>
   <si>
-    <t>453, 454</t>
-  </si>
-  <si>
-    <t>455, 456</t>
-  </si>
-  <si>
-    <t>459, 460</t>
-  </si>
-  <si>
-    <t>461, 462</t>
-  </si>
-  <si>
-    <t>463, 464</t>
-  </si>
-  <si>
-    <t>465, 466</t>
-  </si>
-  <si>
-    <t>467, 468</t>
-  </si>
-  <si>
-    <t>469, 470</t>
-  </si>
-  <si>
-    <t>471, 472</t>
-  </si>
-  <si>
-    <t>473, 474</t>
-  </si>
-  <si>
-    <t>475, 476</t>
-  </si>
-  <si>
-    <t>477, 478</t>
-  </si>
-  <si>
-    <t>479, 480</t>
-  </si>
-  <si>
-    <t>481, 482</t>
-  </si>
-  <si>
-    <t>483, 484</t>
-  </si>
-  <si>
-    <t>485, 486, 487</t>
-  </si>
-  <si>
-    <t>488, 489</t>
-  </si>
-  <si>
-    <t>490, 491</t>
-  </si>
-  <si>
-    <t>492, 493</t>
-  </si>
-  <si>
-    <t>494, 495</t>
-  </si>
-  <si>
     <t>n</t>
   </si>
   <si>
@@ -161,9 +92,6 @@
     <t>crab from ghost gear ; placed in chiller; dead</t>
   </si>
   <si>
-    <t>crab from ghost gear ; placed in chiller; reddish carapace, no leg</t>
-  </si>
-  <si>
     <t>x1xx1xx1xx</t>
   </si>
   <si>
@@ -182,105 +110,15 @@
     <t>xxx33xx1xx</t>
   </si>
   <si>
-    <t>1, 2, 3</t>
-  </si>
-  <si>
-    <t>498, 499</t>
-  </si>
-  <si>
     <t>496 497</t>
   </si>
   <si>
-    <t>500, 501</t>
-  </si>
-  <si>
-    <t>502, 503</t>
-  </si>
-  <si>
     <t>211xxxxx11</t>
   </si>
   <si>
     <t>Glass</t>
   </si>
   <si>
-    <t>505, 506</t>
-  </si>
-  <si>
-    <t>507, 508</t>
-  </si>
-  <si>
-    <t>509, 510</t>
-  </si>
-  <si>
-    <t>511, 512</t>
-  </si>
-  <si>
-    <t>513, 514</t>
-  </si>
-  <si>
-    <t>515, 516</t>
-  </si>
-  <si>
-    <t>517, 518</t>
-  </si>
-  <si>
-    <t>519, 520</t>
-  </si>
-  <si>
-    <t>521 ,522</t>
-  </si>
-  <si>
-    <t>523, 524</t>
-  </si>
-  <si>
-    <t>525, 526</t>
-  </si>
-  <si>
-    <t>527, 528</t>
-  </si>
-  <si>
-    <t>529, 530</t>
-  </si>
-  <si>
-    <t>531, 532</t>
-  </si>
-  <si>
-    <t>533, 534</t>
-  </si>
-  <si>
-    <t>535, 536</t>
-  </si>
-  <si>
-    <t>537, 538</t>
-  </si>
-  <si>
-    <t>541, 542</t>
-  </si>
-  <si>
-    <t>543, 545</t>
-  </si>
-  <si>
-    <t>546, 547</t>
-  </si>
-  <si>
-    <t>548, 549</t>
-  </si>
-  <si>
-    <t>550, 551</t>
-  </si>
-  <si>
-    <t>554, 555</t>
-  </si>
-  <si>
-    <t>556, 557</t>
-  </si>
-  <si>
-    <t>558, 559</t>
-  </si>
-  <si>
-    <t>560, 561</t>
-  </si>
-  <si>
     <t>x1xxxxxxxx</t>
   </si>
   <si>
@@ -344,48 +182,6 @@
     <t>DFO traps; 3rd leg used for NIR and colorimeter</t>
   </si>
   <si>
-    <t>563, 564</t>
-  </si>
-  <si>
-    <t>565, 566</t>
-  </si>
-  <si>
-    <t>567, 568</t>
-  </si>
-  <si>
-    <t>569, 570</t>
-  </si>
-  <si>
-    <t>571, 572</t>
-  </si>
-  <si>
-    <t>573, 574</t>
-  </si>
-  <si>
-    <t>575, 576</t>
-  </si>
-  <si>
-    <t>577, 578</t>
-  </si>
-  <si>
-    <t>579, 580</t>
-  </si>
-  <si>
-    <t>581, 582</t>
-  </si>
-  <si>
-    <t>583, 584</t>
-  </si>
-  <si>
-    <t>585, 586</t>
-  </si>
-  <si>
-    <t>587, 588</t>
-  </si>
-  <si>
-    <t>590, 591</t>
-  </si>
-  <si>
     <t>DFO traps; carapace red-ish</t>
   </si>
   <si>
@@ -431,27 +227,6 @@
     <t>CCGS Perley</t>
   </si>
   <si>
-    <t>427, 428</t>
-  </si>
-  <si>
-    <t>430, 431</t>
-  </si>
-  <si>
-    <t>432, 433</t>
-  </si>
-  <si>
-    <t>434, 435</t>
-  </si>
-  <si>
-    <t>436, 437</t>
-  </si>
-  <si>
-    <t>438, 439, 440, 442</t>
-  </si>
-  <si>
-    <t>443, 444</t>
-  </si>
-  <si>
     <t>saranwrap</t>
   </si>
   <si>
@@ -546,6 +321,231 @@
   </si>
   <si>
     <t>date.measured</t>
+  </si>
+  <si>
+    <t>Moriyasu; LandryK; Boudreau</t>
+  </si>
+  <si>
+    <t>427; 428</t>
+  </si>
+  <si>
+    <t>430; 431</t>
+  </si>
+  <si>
+    <t>432; 433</t>
+  </si>
+  <si>
+    <t>434; 435</t>
+  </si>
+  <si>
+    <t>436; 437</t>
+  </si>
+  <si>
+    <t>438; 439; 440; 442</t>
+  </si>
+  <si>
+    <t>443; 444</t>
+  </si>
+  <si>
+    <t>445; 446</t>
+  </si>
+  <si>
+    <t>Moriyasu; LandryK; Allain</t>
+  </si>
+  <si>
+    <t>453; 454</t>
+  </si>
+  <si>
+    <t>455; 456</t>
+  </si>
+  <si>
+    <t>459; 460</t>
+  </si>
+  <si>
+    <t>461; 462</t>
+  </si>
+  <si>
+    <t>463; 464</t>
+  </si>
+  <si>
+    <t>465; 466</t>
+  </si>
+  <si>
+    <t>467; 468</t>
+  </si>
+  <si>
+    <t>469; 470</t>
+  </si>
+  <si>
+    <t>471; 472</t>
+  </si>
+  <si>
+    <t>473; 474</t>
+  </si>
+  <si>
+    <t>475; 476</t>
+  </si>
+  <si>
+    <t>477; 478</t>
+  </si>
+  <si>
+    <t>479; 480</t>
+  </si>
+  <si>
+    <t>481; 482</t>
+  </si>
+  <si>
+    <t>483; 484</t>
+  </si>
+  <si>
+    <t>485; 486; 487</t>
+  </si>
+  <si>
+    <t>crab from ghost gear ; placed in chiller; reddish carapace; no leg</t>
+  </si>
+  <si>
+    <t>488; 489</t>
+  </si>
+  <si>
+    <t>490; 491</t>
+  </si>
+  <si>
+    <t>1; 2; 3</t>
+  </si>
+  <si>
+    <t>492; 493</t>
+  </si>
+  <si>
+    <t>494; 495</t>
+  </si>
+  <si>
+    <t>498; 499</t>
+  </si>
+  <si>
+    <t>500; 501</t>
+  </si>
+  <si>
+    <t>502; 503</t>
+  </si>
+  <si>
+    <t>505; 506</t>
+  </si>
+  <si>
+    <t>507; 508</t>
+  </si>
+  <si>
+    <t>509; 510</t>
+  </si>
+  <si>
+    <t>511; 512</t>
+  </si>
+  <si>
+    <t>513; 514</t>
+  </si>
+  <si>
+    <t>515; 516</t>
+  </si>
+  <si>
+    <t>517; 518</t>
+  </si>
+  <si>
+    <t>519; 520</t>
+  </si>
+  <si>
+    <t>521 ;522</t>
+  </si>
+  <si>
+    <t>523; 524</t>
+  </si>
+  <si>
+    <t>525; 526</t>
+  </si>
+  <si>
+    <t>527; 528</t>
+  </si>
+  <si>
+    <t>529; 530</t>
+  </si>
+  <si>
+    <t>531; 532</t>
+  </si>
+  <si>
+    <t>533; 534</t>
+  </si>
+  <si>
+    <t>535; 536</t>
+  </si>
+  <si>
+    <t>537; 538</t>
+  </si>
+  <si>
+    <t>541; 542</t>
+  </si>
+  <si>
+    <t>543; 545</t>
+  </si>
+  <si>
+    <t>546; 547</t>
+  </si>
+  <si>
+    <t>548; 549</t>
+  </si>
+  <si>
+    <t>550; 551</t>
+  </si>
+  <si>
+    <t>554; 555</t>
+  </si>
+  <si>
+    <t>556; 557</t>
+  </si>
+  <si>
+    <t>558; 559</t>
+  </si>
+  <si>
+    <t>560; 561</t>
+  </si>
+  <si>
+    <t>563; 564</t>
+  </si>
+  <si>
+    <t>565; 566</t>
+  </si>
+  <si>
+    <t>567; 568</t>
+  </si>
+  <si>
+    <t>569; 570</t>
+  </si>
+  <si>
+    <t>571; 572</t>
+  </si>
+  <si>
+    <t>573; 574</t>
+  </si>
+  <si>
+    <t>575; 576</t>
+  </si>
+  <si>
+    <t>577; 578</t>
+  </si>
+  <si>
+    <t>579; 580</t>
+  </si>
+  <si>
+    <t>581; 582</t>
+  </si>
+  <si>
+    <t>583; 584</t>
+  </si>
+  <si>
+    <t>585; 586</t>
+  </si>
+  <si>
+    <t>587; 588</t>
+  </si>
+  <si>
+    <t>590; 591</t>
   </si>
 </sst>
 </file>
@@ -924,7 +924,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -956,91 +956,91 @@
   <sheetData>
     <row r="1" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>168</v>
+        <v>93</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>165</v>
+        <v>90</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>166</v>
+        <v>91</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>169</v>
+        <v>94</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>127</v>
+        <v>59</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>167</v>
+        <v>92</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>142</v>
+        <v>67</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>141</v>
+        <v>66</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>143</v>
+        <v>68</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>144</v>
+        <v>69</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>145</v>
+        <v>70</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>157</v>
+        <v>82</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>146</v>
+        <v>71</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>147</v>
+        <v>72</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>149</v>
+        <v>74</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>151</v>
+        <v>76</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>153</v>
+        <v>78</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>155</v>
+        <v>80</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>152</v>
+        <v>77</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>156</v>
+        <v>81</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>159</v>
+        <v>84</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>160</v>
+        <v>85</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>161</v>
+        <v>86</v>
       </c>
       <c r="Z1" s="2" t="s">
-        <v>162</v>
+        <v>87</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>163</v>
+        <v>88</v>
       </c>
       <c r="AB1" s="2" t="s">
-        <v>164</v>
+        <v>89</v>
       </c>
       <c r="AC1" s="2" t="s">
-        <v>158</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
@@ -1057,37 +1057,37 @@
         <v>45177</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>128</v>
+        <v>60</v>
       </c>
       <c r="F2" s="1">
         <v>4</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>130</v>
+        <v>62</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="K2" s="1">
         <v>100</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>138</v>
+        <v>63</v>
       </c>
       <c r="M2" s="1">
         <v>1</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>148</v>
+        <v>73</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P2" s="1">
         <v>104.38</v>
@@ -1102,10 +1102,10 @@
         <v>2.5</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>131</v>
+        <v>96</v>
       </c>
       <c r="V2" s="1" t="s">
         <v>1</v>
@@ -1129,7 +1129,7 @@
         <v>7.63</v>
       </c>
       <c r="AC2" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
@@ -1146,37 +1146,37 @@
         <v>45177</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>128</v>
+        <v>60</v>
       </c>
       <c r="F3" s="1">
         <v>4</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>130</v>
+        <v>62</v>
       </c>
       <c r="H3" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="K3" s="1">
         <v>100</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>138</v>
+        <v>63</v>
       </c>
       <c r="M3" s="1">
         <v>2</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>148</v>
+        <v>73</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P3" s="1">
         <v>116.84</v>
@@ -1191,13 +1191,13 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>132</v>
+        <v>97</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="W3" s="1">
         <v>57.67</v>
@@ -1218,7 +1218,7 @@
         <v>5.48</v>
       </c>
       <c r="AC3" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.25">
@@ -1235,34 +1235,34 @@
         <v>45177</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>128</v>
+        <v>60</v>
       </c>
       <c r="F4" s="1">
         <v>4</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>130</v>
+        <v>62</v>
       </c>
       <c r="H4" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="K4" s="1">
         <v>100</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>138</v>
+        <v>63</v>
       </c>
       <c r="M4" s="1">
         <v>3</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>148</v>
+        <v>73</v>
       </c>
       <c r="O4" s="1">
         <v>3</v>
@@ -1280,13 +1280,13 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>133</v>
+        <v>98</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="W4" s="1">
         <v>59.12</v>
@@ -1307,7 +1307,7 @@
         <v>0.43</v>
       </c>
       <c r="AC4" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
@@ -1324,34 +1324,34 @@
         <v>45177</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>128</v>
+        <v>60</v>
       </c>
       <c r="F5" s="1">
         <v>4</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>130</v>
+        <v>62</v>
       </c>
       <c r="H5" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="K5" s="1">
         <v>100</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>138</v>
+        <v>63</v>
       </c>
       <c r="M5" s="1">
         <v>4</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>148</v>
+        <v>73</v>
       </c>
       <c r="O5" s="1">
         <v>3</v>
@@ -1369,10 +1369,10 @@
         <v>6.2</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="V5" s="1" t="s">
         <v>1</v>
@@ -1396,7 +1396,7 @@
         <v>5.3</v>
       </c>
       <c r="AC5" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
@@ -1413,37 +1413,37 @@
         <v>45177</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>128</v>
+        <v>60</v>
       </c>
       <c r="F6" s="1">
         <v>4</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>130</v>
+        <v>62</v>
       </c>
       <c r="H6" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="K6" s="1">
         <v>100</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>138</v>
+        <v>63</v>
       </c>
       <c r="M6" s="1">
         <v>5</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>148</v>
+        <v>73</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P6" s="1">
         <v>120.45</v>
@@ -1458,10 +1458,10 @@
         <v>3.8</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="V6" s="1" t="s">
         <v>1</v>
@@ -1485,7 +1485,7 @@
         <v>7.79</v>
       </c>
       <c r="AC6" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
@@ -1502,34 +1502,34 @@
         <v>45177</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>128</v>
+        <v>60</v>
       </c>
       <c r="F7" s="1">
         <v>4</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>130</v>
+        <v>62</v>
       </c>
       <c r="H7" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="J7" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="K7" s="1">
         <v>100</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>138</v>
+        <v>63</v>
       </c>
       <c r="M7" s="1">
         <v>6</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>148</v>
+        <v>73</v>
       </c>
       <c r="O7" s="1">
         <v>4</v>
@@ -1547,13 +1547,13 @@
         <v>7.2</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>136</v>
+        <v>101</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="W7" s="1">
         <v>46.71</v>
@@ -1574,7 +1574,7 @@
         <v>6.22</v>
       </c>
       <c r="AC7" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.25">
@@ -1591,34 +1591,34 @@
         <v>45177</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>128</v>
+        <v>60</v>
       </c>
       <c r="F8" s="1">
         <v>4</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>130</v>
+        <v>62</v>
       </c>
       <c r="H8" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="K8" s="1">
         <v>100</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>138</v>
+        <v>63</v>
       </c>
       <c r="M8" s="1">
         <v>7</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>148</v>
+        <v>73</v>
       </c>
       <c r="O8" s="1">
         <v>3</v>
@@ -1636,13 +1636,13 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>137</v>
+        <v>102</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="W8" s="1">
         <v>60.32</v>
@@ -1663,7 +1663,7 @@
         <v>1.24</v>
       </c>
       <c r="AC8" s="5" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
@@ -1680,37 +1680,37 @@
         <v>45177</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>128</v>
+        <v>60</v>
       </c>
       <c r="F9" s="1">
         <v>4</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>130</v>
+        <v>62</v>
       </c>
       <c r="H9" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="J9" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="K9" s="1">
         <v>100</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>138</v>
+        <v>63</v>
       </c>
       <c r="M9" s="1">
         <v>8</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>148</v>
+        <v>73</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P9" s="1">
         <v>89.19</v>
@@ -1725,10 +1725,10 @@
         <v>7.8</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>8</v>
+        <v>103</v>
       </c>
       <c r="V9" s="1" t="s">
         <v>1</v>
@@ -1752,7 +1752,7 @@
         <v>7.96</v>
       </c>
       <c r="AC9" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.25">
@@ -1769,35 +1769,35 @@
         <v>45178</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>128</v>
+        <v>60</v>
       </c>
       <c r="F10" s="1">
         <v>4</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>130</v>
+        <v>62</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="I10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J10" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="K10" s="1">
         <v>100</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>138</v>
+        <v>63</v>
       </c>
       <c r="M10" s="1">
         <f>(M9+1)</f>
         <v>9</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>148</v>
+        <v>73</v>
       </c>
       <c r="O10" s="1">
         <v>3</v>
@@ -1815,13 +1815,13 @@
         <v>2.6</v>
       </c>
       <c r="T10" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="W10" s="1">
         <v>61.39</v>
@@ -1842,7 +1842,7 @@
         <v>-0.17</v>
       </c>
       <c r="AC10" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
@@ -1859,38 +1859,38 @@
         <v>45178</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>128</v>
+        <v>60</v>
       </c>
       <c r="F11" s="1">
         <v>4</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>130</v>
+        <v>62</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="I11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J11" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="K11" s="1">
         <v>100</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>138</v>
+        <v>63</v>
       </c>
       <c r="M11" s="1">
         <f t="shared" ref="M11:M72" si="0">(M10+1)</f>
         <v>10</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>148</v>
+        <v>73</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P11" s="1">
         <v>103.7</v>
@@ -1905,10 +1905,10 @@
         <v>3.4</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>14</v>
+        <v>105</v>
       </c>
       <c r="V11" s="1" t="s">
         <v>1</v>
@@ -1932,7 +1932,7 @@
         <v>10.33</v>
       </c>
       <c r="AC11" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.25">
@@ -1949,35 +1949,35 @@
         <v>45178</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>128</v>
+        <v>60</v>
       </c>
       <c r="F12" s="1">
         <v>4</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>130</v>
+        <v>62</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="I12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J12" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="K12" s="1">
         <v>100</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>138</v>
+        <v>63</v>
       </c>
       <c r="M12" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>148</v>
+        <v>73</v>
       </c>
       <c r="O12" s="1">
         <v>3</v>
@@ -1995,10 +1995,10 @@
         <v>3.8</v>
       </c>
       <c r="T12" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>15</v>
+        <v>106</v>
       </c>
       <c r="V12" s="1" t="s">
         <v>1</v>
@@ -2022,7 +2022,7 @@
         <v>5.03</v>
       </c>
       <c r="AC12" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.25">
@@ -2039,35 +2039,35 @@
         <v>45178</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>128</v>
+        <v>60</v>
       </c>
       <c r="F13" s="1">
         <v>4</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>130</v>
+        <v>62</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="I13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J13" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="K13" s="1">
         <v>100</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>138</v>
+        <v>63</v>
       </c>
       <c r="M13" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>148</v>
+        <v>73</v>
       </c>
       <c r="O13" s="1">
         <v>3</v>
@@ -2085,13 +2085,13 @@
         <v>3.8</v>
       </c>
       <c r="T13" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U13" s="8">
         <v>457458</v>
       </c>
       <c r="V13" s="1" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="W13" s="1">
         <v>47.59</v>
@@ -2112,7 +2112,7 @@
         <v>7.28</v>
       </c>
       <c r="AC13" s="5" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.25">
@@ -2129,38 +2129,38 @@
         <v>45178</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>128</v>
+        <v>60</v>
       </c>
       <c r="F14" s="1">
         <v>4</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>130</v>
+        <v>62</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="I14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J14" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="K14" s="1">
         <v>100</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>138</v>
+        <v>63</v>
       </c>
       <c r="M14" s="1">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>148</v>
+        <v>73</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P14" s="1">
         <v>123.66</v>
@@ -2175,13 +2175,13 @@
         <v>3.5</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>16</v>
+        <v>107</v>
       </c>
       <c r="V14" s="1" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="W14" s="1">
         <v>60.89</v>
@@ -2202,7 +2202,7 @@
         <v>5.72</v>
       </c>
       <c r="AC14" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.25">
@@ -2219,35 +2219,35 @@
         <v>45178</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>128</v>
+        <v>60</v>
       </c>
       <c r="F15" s="1">
         <v>4</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>130</v>
+        <v>62</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="I15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J15" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="K15" s="1">
         <v>100</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>138</v>
+        <v>63</v>
       </c>
       <c r="M15" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>148</v>
+        <v>73</v>
       </c>
       <c r="O15" s="1">
         <v>3</v>
@@ -2265,13 +2265,13 @@
         <v>4.8</v>
       </c>
       <c r="T15" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U15" s="1" t="s">
-        <v>17</v>
+        <v>108</v>
       </c>
       <c r="V15" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="W15" s="1">
         <v>62.35</v>
@@ -2292,7 +2292,7 @@
         <v>4.79</v>
       </c>
       <c r="AC15" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.25">
@@ -2309,38 +2309,38 @@
         <v>45178</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>128</v>
+        <v>60</v>
       </c>
       <c r="F16" s="1">
         <v>4</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>130</v>
+        <v>62</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="I16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J16" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="K16" s="1">
         <v>100</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>138</v>
+        <v>63</v>
       </c>
       <c r="M16" s="1">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>148</v>
+        <v>73</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P16" s="1">
         <v>104.33</v>
@@ -2355,10 +2355,10 @@
         <v>5.4</v>
       </c>
       <c r="T16" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U16" s="1" t="s">
-        <v>18</v>
+        <v>109</v>
       </c>
       <c r="V16" s="1" t="s">
         <v>1</v>
@@ -2382,7 +2382,7 @@
         <v>6.81</v>
       </c>
       <c r="AC16" s="5" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.25">
@@ -2399,38 +2399,38 @@
         <v>45178</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>128</v>
+        <v>60</v>
       </c>
       <c r="F17" s="1">
         <v>4</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>130</v>
+        <v>62</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="I17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J17" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="K17" s="1">
         <v>100</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>138</v>
+        <v>63</v>
       </c>
       <c r="M17" s="1">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>148</v>
+        <v>73</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P17" s="1">
         <v>128.97</v>
@@ -2445,13 +2445,13 @@
         <v>4.2</v>
       </c>
       <c r="T17" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U17" s="1" t="s">
-        <v>19</v>
+        <v>110</v>
       </c>
       <c r="V17" s="1" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="W17" s="1">
         <v>63.15</v>
@@ -2472,7 +2472,7 @@
         <v>7.61</v>
       </c>
       <c r="AC17" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.25">
@@ -2489,38 +2489,38 @@
         <v>45178</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>128</v>
+        <v>60</v>
       </c>
       <c r="F18" s="1">
         <v>4</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>130</v>
+        <v>62</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="I18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J18" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="K18" s="1">
         <v>100</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>138</v>
+        <v>63</v>
       </c>
       <c r="M18" s="1">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>148</v>
+        <v>73</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P18" s="1">
         <v>94.97</v>
@@ -2535,10 +2535,10 @@
         <v>6</v>
       </c>
       <c r="T18" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U18" s="1" t="s">
-        <v>20</v>
+        <v>111</v>
       </c>
       <c r="V18" s="1" t="s">
         <v>1</v>
@@ -2562,7 +2562,7 @@
         <v>8.6300000000000008</v>
       </c>
       <c r="AC18" s="5" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.25">
@@ -2579,35 +2579,35 @@
         <v>45178</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>128</v>
+        <v>60</v>
       </c>
       <c r="F19" s="1">
         <v>4</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>130</v>
+        <v>62</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="I19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J19" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="K19" s="1">
         <v>100</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>138</v>
+        <v>63</v>
       </c>
       <c r="M19" s="1">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>148</v>
+        <v>73</v>
       </c>
       <c r="O19" s="1">
         <v>2</v>
@@ -2625,10 +2625,10 @@
         <v>2</v>
       </c>
       <c r="T19" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U19" s="1" t="s">
-        <v>21</v>
+        <v>112</v>
       </c>
       <c r="V19" s="1" t="s">
         <v>1</v>
@@ -2652,7 +2652,7 @@
         <v>4.96</v>
       </c>
       <c r="AC19" s="5" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.25">
@@ -2669,38 +2669,38 @@
         <v>45178</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>128</v>
+        <v>60</v>
       </c>
       <c r="F20" s="1">
         <v>4</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>130</v>
+        <v>62</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="I20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J20" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="K20" s="1">
         <v>100</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>138</v>
+        <v>63</v>
       </c>
       <c r="M20" s="1">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>148</v>
+        <v>73</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P20" s="1">
         <v>98.55</v>
@@ -2715,13 +2715,13 @@
         <v>2</v>
       </c>
       <c r="T20" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U20" s="1" t="s">
-        <v>22</v>
+        <v>113</v>
       </c>
       <c r="V20" s="1" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="W20" s="1">
         <v>51.68</v>
@@ -2742,7 +2742,7 @@
         <v>2.5099999999999998</v>
       </c>
       <c r="AC20" s="5" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.25">
@@ -2759,38 +2759,38 @@
         <v>45178</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>128</v>
+        <v>60</v>
       </c>
       <c r="F21" s="1">
         <v>4</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>130</v>
+        <v>62</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="I21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J21" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="K21" s="1">
         <v>100</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>138</v>
+        <v>63</v>
       </c>
       <c r="M21" s="1">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>148</v>
+        <v>73</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P21" s="1">
         <v>100.2</v>
@@ -2805,13 +2805,13 @@
         <v>5</v>
       </c>
       <c r="T21" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U21" s="1" t="s">
-        <v>23</v>
+        <v>114</v>
       </c>
       <c r="V21" s="1" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="W21" s="1">
         <v>48.14</v>
@@ -2832,7 +2832,7 @@
         <v>9.33</v>
       </c>
       <c r="AC21" s="5" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.25">
@@ -2849,38 +2849,38 @@
         <v>45178</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>128</v>
+        <v>60</v>
       </c>
       <c r="F22" s="1">
         <v>4</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>130</v>
+        <v>62</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="I22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J22" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="K22" s="1">
         <v>100</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>138</v>
+        <v>63</v>
       </c>
       <c r="M22" s="1">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>148</v>
+        <v>73</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P22" s="1">
         <v>118.36</v>
@@ -2895,10 +2895,10 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="T22" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U22" s="1" t="s">
-        <v>24</v>
+        <v>115</v>
       </c>
       <c r="V22" s="1" t="s">
         <v>1</v>
@@ -2922,7 +2922,7 @@
         <v>6.59</v>
       </c>
       <c r="AC22" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.25">
@@ -2939,38 +2939,38 @@
         <v>45178</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>128</v>
+        <v>60</v>
       </c>
       <c r="F23" s="1">
         <v>4</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>130</v>
+        <v>62</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="I23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J23" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="K23" s="1">
         <v>100</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>138</v>
+        <v>63</v>
       </c>
       <c r="M23" s="1">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>148</v>
+        <v>73</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P23" s="1">
         <v>94.32</v>
@@ -2985,10 +2985,10 @@
         <v>6.6</v>
       </c>
       <c r="T23" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U23" s="1" t="s">
-        <v>25</v>
+        <v>116</v>
       </c>
       <c r="V23" s="1" t="s">
         <v>1</v>
@@ -3012,7 +3012,7 @@
         <v>7.52</v>
       </c>
       <c r="AC23" s="5" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.25">
@@ -3029,38 +3029,38 @@
         <v>45178</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>128</v>
+        <v>60</v>
       </c>
       <c r="F24" s="1">
         <v>4</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>130</v>
+        <v>62</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="I24" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J24" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="K24" s="1">
         <v>100</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>138</v>
+        <v>63</v>
       </c>
       <c r="M24" s="1">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>148</v>
+        <v>73</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P24" s="1">
         <v>109.68</v>
@@ -3075,13 +3075,13 @@
         <v>3.6</v>
       </c>
       <c r="T24" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U24" s="1" t="s">
-        <v>26</v>
+        <v>117</v>
       </c>
       <c r="V24" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="W24" s="1">
         <v>59.35</v>
@@ -3102,7 +3102,7 @@
         <v>3.7</v>
       </c>
       <c r="AC24" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.25">
@@ -3119,35 +3119,35 @@
         <v>45178</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>128</v>
+        <v>60</v>
       </c>
       <c r="F25" s="1">
         <v>4</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>130</v>
+        <v>62</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="I25" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J25" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="K25" s="1">
         <v>100</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>138</v>
+        <v>63</v>
       </c>
       <c r="M25" s="1">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>148</v>
+        <v>73</v>
       </c>
       <c r="O25" s="1">
         <v>3</v>
@@ -3165,10 +3165,10 @@
         <v>1.8</v>
       </c>
       <c r="T25" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U25" s="1" t="s">
-        <v>27</v>
+        <v>118</v>
       </c>
       <c r="V25" s="1" t="s">
         <v>1</v>
@@ -3192,7 +3192,7 @@
         <v>3.94</v>
       </c>
       <c r="AC25" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.25">
@@ -3209,38 +3209,38 @@
         <v>45178</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>128</v>
+        <v>60</v>
       </c>
       <c r="F26" s="1">
         <v>4</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>130</v>
+        <v>62</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="I26" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J26" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="K26" s="1">
         <v>100</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>138</v>
+        <v>63</v>
       </c>
       <c r="M26" s="1">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>148</v>
+        <v>73</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P26" s="1">
         <v>91.1</v>
@@ -3255,10 +3255,10 @@
         <v>6.4</v>
       </c>
       <c r="T26" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U26" s="1" t="s">
-        <v>28</v>
+        <v>119</v>
       </c>
       <c r="V26" s="1" t="s">
         <v>1</v>
@@ -3282,7 +3282,7 @@
         <v>9.92</v>
       </c>
       <c r="AC26" s="5" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:29" x14ac:dyDescent="0.25">
@@ -3299,38 +3299,38 @@
         <v>45178</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>128</v>
+        <v>60</v>
       </c>
       <c r="F27" s="1">
         <v>4</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>130</v>
+        <v>62</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="I27" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J27" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="K27" s="1">
         <v>100</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>138</v>
+        <v>63</v>
       </c>
       <c r="M27" s="1">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>148</v>
+        <v>73</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P27" s="1">
         <v>110.59</v>
@@ -3345,13 +3345,13 @@
         <v>4.8</v>
       </c>
       <c r="T27" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U27" s="1" t="s">
-        <v>29</v>
+        <v>120</v>
       </c>
       <c r="V27" s="1" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="W27" s="1">
         <v>47.55</v>
@@ -3372,7 +3372,7 @@
         <v>10.76</v>
       </c>
       <c r="AC27" s="5" t="s">
-        <v>41</v>
+        <v>121</v>
       </c>
     </row>
     <row r="28" spans="1:29" x14ac:dyDescent="0.25">
@@ -3389,38 +3389,38 @@
         <v>45178</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>128</v>
+        <v>60</v>
       </c>
       <c r="F28" s="1">
         <v>4</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>130</v>
+        <v>62</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="I28" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J28" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="K28" s="1">
         <v>100</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>138</v>
+        <v>63</v>
       </c>
       <c r="M28" s="1">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>148</v>
+        <v>73</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P28" s="1">
         <v>105.45</v>
@@ -3435,10 +3435,10 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="T28" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U28" s="1" t="s">
-        <v>30</v>
+        <v>122</v>
       </c>
       <c r="V28" s="1" t="s">
         <v>1</v>
@@ -3462,7 +3462,7 @@
         <v>5.37</v>
       </c>
       <c r="AC28" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:29" x14ac:dyDescent="0.25">
@@ -3479,38 +3479,38 @@
         <v>45178</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>128</v>
+        <v>60</v>
       </c>
       <c r="F29" s="1">
         <v>4</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>130</v>
+        <v>62</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="I29" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J29" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="K29" s="1">
         <v>100</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>138</v>
+        <v>63</v>
       </c>
       <c r="M29" s="1">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>148</v>
+        <v>73</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P29" s="1">
         <v>91.34</v>
@@ -3525,10 +3525,10 @@
         <v>5.4</v>
       </c>
       <c r="T29" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U29" s="1" t="s">
-        <v>31</v>
+        <v>123</v>
       </c>
       <c r="V29" s="1" t="s">
         <v>1</v>
@@ -3552,7 +3552,7 @@
         <v>7.91</v>
       </c>
       <c r="AC29" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:29" x14ac:dyDescent="0.25">
@@ -3569,35 +3569,35 @@
         <v>45178</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>129</v>
+        <v>61</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>48</v>
+        <v>124</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>130</v>
+        <v>62</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="K30" s="1">
         <v>93</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>138</v>
+        <v>63</v>
       </c>
       <c r="M30" s="1">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>148</v>
+        <v>73</v>
       </c>
       <c r="O30" s="1">
         <v>3</v>
@@ -3615,10 +3615,10 @@
         <v>5.6</v>
       </c>
       <c r="T30" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U30" s="1" t="s">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="V30" s="1" t="s">
         <v>1</v>
@@ -3642,7 +3642,7 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="AC30" s="5" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.25">
@@ -3659,35 +3659,35 @@
         <v>45178</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>129</v>
+        <v>61</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>48</v>
+        <v>124</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>130</v>
+        <v>62</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="K31" s="1">
         <v>93</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>138</v>
+        <v>63</v>
       </c>
       <c r="M31" s="1">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>148</v>
+        <v>73</v>
       </c>
       <c r="O31" s="1">
         <v>4</v>
@@ -3705,13 +3705,13 @@
         <v>4.8</v>
       </c>
       <c r="T31" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U31" s="1" t="s">
-        <v>33</v>
+        <v>126</v>
       </c>
       <c r="V31" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="W31" s="1">
         <v>44.67</v>
@@ -3732,7 +3732,7 @@
         <v>15.63</v>
       </c>
       <c r="AC31" s="5" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.25">
@@ -3749,35 +3749,35 @@
         <v>45178</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>129</v>
+        <v>61</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>48</v>
+        <v>124</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>130</v>
+        <v>62</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="K32" s="1">
         <v>93</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>138</v>
+        <v>63</v>
       </c>
       <c r="M32" s="1">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>148</v>
+        <v>73</v>
       </c>
       <c r="O32" s="1">
         <v>4</v>
@@ -3795,13 +3795,13 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="T32" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U32" s="8" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="V32" s="1" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="W32" s="1">
         <v>55.59</v>
@@ -3822,7 +3822,7 @@
         <v>13.03</v>
       </c>
       <c r="AC32" s="5" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:29" x14ac:dyDescent="0.25">
@@ -3839,35 +3839,35 @@
         <v>45178</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>129</v>
+        <v>61</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>48</v>
+        <v>124</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>130</v>
+        <v>62</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="K33" s="1">
         <v>93</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>138</v>
+        <v>63</v>
       </c>
       <c r="M33" s="1">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>148</v>
+        <v>73</v>
       </c>
       <c r="O33" s="1">
         <v>4</v>
@@ -3885,10 +3885,10 @@
         <v>5</v>
       </c>
       <c r="T33" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U33" s="1" t="s">
-        <v>49</v>
+        <v>127</v>
       </c>
       <c r="V33" s="1" t="s">
         <v>1</v>
@@ -3912,7 +3912,7 @@
         <v>13.52</v>
       </c>
       <c r="AC33" s="5" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:29" x14ac:dyDescent="0.25">
@@ -3929,35 +3929,35 @@
         <v>45178</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>129</v>
+        <v>61</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>48</v>
+        <v>124</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>130</v>
+        <v>62</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="K34" s="1">
         <v>93</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>138</v>
+        <v>63</v>
       </c>
       <c r="M34" s="1">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>148</v>
+        <v>73</v>
       </c>
       <c r="O34" s="1">
         <v>4</v>
@@ -3975,13 +3975,13 @@
         <v>5.8</v>
       </c>
       <c r="T34" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U34" s="1" t="s">
-        <v>51</v>
+        <v>128</v>
       </c>
       <c r="V34" s="1" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="W34" s="1">
         <v>44.12</v>
@@ -4002,7 +4002,7 @@
         <v>8.85</v>
       </c>
       <c r="AC34" s="5" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:29" x14ac:dyDescent="0.25">
@@ -4019,35 +4019,35 @@
         <v>45178</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>129</v>
+        <v>61</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>48</v>
+        <v>124</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>130</v>
+        <v>62</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="K35" s="1">
         <v>93</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>138</v>
+        <v>63</v>
       </c>
       <c r="M35" s="1">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>148</v>
+        <v>73</v>
       </c>
       <c r="O35" s="1">
         <v>4</v>
@@ -4065,13 +4065,13 @@
         <v>6.4</v>
       </c>
       <c r="T35" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U35" s="1" t="s">
-        <v>52</v>
+        <v>129</v>
       </c>
       <c r="V35" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="W35" s="1">
         <v>50</v>
@@ -4092,7 +4092,7 @@
         <v>5.37</v>
       </c>
       <c r="AC35" s="5" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:29" x14ac:dyDescent="0.25">
@@ -4109,35 +4109,35 @@
         <v>45179</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>129</v>
+        <v>61</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>48</v>
+        <v>124</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>130</v>
+        <v>62</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="K36" s="1">
         <v>93</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="M36" s="1">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>148</v>
+        <v>73</v>
       </c>
       <c r="O36" s="1">
         <v>4</v>
@@ -4155,13 +4155,13 @@
         <v>3.6</v>
       </c>
       <c r="T36" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U36" s="1" t="s">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="V36" s="1" t="s">
-        <v>81</v>
+        <v>27</v>
       </c>
       <c r="W36" s="1">
         <v>43.88</v>
@@ -4182,7 +4182,7 @@
         <v>12.63</v>
       </c>
       <c r="AC36" s="5" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37" spans="1:29" x14ac:dyDescent="0.25">
@@ -4199,35 +4199,35 @@
         <v>45179</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>129</v>
+        <v>61</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>48</v>
+        <v>124</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>130</v>
+        <v>62</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="K37" s="1">
         <v>93</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="M37" s="1">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>148</v>
+        <v>73</v>
       </c>
       <c r="O37" s="1">
         <v>4</v>
@@ -4245,10 +4245,10 @@
         <v>3.6</v>
       </c>
       <c r="T37" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U37" s="1" t="s">
-        <v>56</v>
+        <v>131</v>
       </c>
       <c r="V37" s="1" t="s">
         <v>1</v>
@@ -4272,7 +4272,7 @@
         <v>7.96</v>
       </c>
       <c r="AC37" s="5" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38" spans="1:29" x14ac:dyDescent="0.25">
@@ -4289,35 +4289,35 @@
         <v>45179</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>129</v>
+        <v>61</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>48</v>
+        <v>124</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>130</v>
+        <v>62</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="K38" s="1">
         <v>93</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="M38" s="1">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>148</v>
+        <v>73</v>
       </c>
       <c r="O38" s="1">
         <v>5</v>
@@ -4335,10 +4335,10 @@
         <v>2.4</v>
       </c>
       <c r="T38" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U38" s="1" t="s">
-        <v>57</v>
+        <v>132</v>
       </c>
       <c r="V38" s="1" t="s">
         <v>1</v>
@@ -4362,7 +4362,7 @@
         <v>8.99</v>
       </c>
       <c r="AC38" s="5" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39" spans="1:29" x14ac:dyDescent="0.25">
@@ -4379,35 +4379,35 @@
         <v>45179</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>129</v>
+        <v>61</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>48</v>
+        <v>124</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>130</v>
+        <v>62</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="K39" s="1">
         <v>93</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="M39" s="1">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>148</v>
+        <v>73</v>
       </c>
       <c r="O39" s="1">
         <v>4</v>
@@ -4425,13 +4425,13 @@
         <v>3.2</v>
       </c>
       <c r="T39" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U39" s="1" t="s">
-        <v>58</v>
+        <v>133</v>
       </c>
       <c r="V39" s="1" t="s">
-        <v>82</v>
+        <v>28</v>
       </c>
       <c r="W39" s="1">
         <v>47.49</v>
@@ -4452,7 +4452,7 @@
         <v>13.23</v>
       </c>
       <c r="AC39" s="5" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40" spans="1:29" x14ac:dyDescent="0.25">
@@ -4469,35 +4469,35 @@
         <v>45179</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>129</v>
+        <v>61</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>48</v>
+        <v>124</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>130</v>
+        <v>62</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="K40" s="1">
         <v>93</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="M40" s="1">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>148</v>
+        <v>73</v>
       </c>
       <c r="O40" s="1">
         <v>4</v>
@@ -4515,13 +4515,13 @@
         <v>8.6</v>
       </c>
       <c r="T40" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U40" s="1" t="s">
-        <v>59</v>
+        <v>134</v>
       </c>
       <c r="V40" s="1" t="s">
-        <v>83</v>
+        <v>29</v>
       </c>
       <c r="W40" s="1">
         <v>49.26</v>
@@ -4542,7 +4542,7 @@
         <v>12.76</v>
       </c>
       <c r="AC40" s="5" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41" spans="1:29" x14ac:dyDescent="0.25">
@@ -4559,35 +4559,35 @@
         <v>45179</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>129</v>
+        <v>61</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>48</v>
+        <v>124</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>130</v>
+        <v>62</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="K41" s="1">
         <v>93</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="M41" s="1">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>148</v>
+        <v>73</v>
       </c>
       <c r="O41" s="1">
         <v>4</v>
@@ -4605,10 +4605,10 @@
         <v>4.8</v>
       </c>
       <c r="T41" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U41" s="1" t="s">
-        <v>60</v>
+        <v>135</v>
       </c>
       <c r="V41" s="1" t="s">
         <v>1</v>
@@ -4632,7 +4632,7 @@
         <v>15.4</v>
       </c>
       <c r="AC41" s="5" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
     </row>
     <row r="42" spans="1:29" x14ac:dyDescent="0.25">
@@ -4649,35 +4649,35 @@
         <v>45179</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>129</v>
+        <v>61</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>48</v>
+        <v>124</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>130</v>
+        <v>62</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="K42" s="1">
         <v>93</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="M42" s="1">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>148</v>
+        <v>73</v>
       </c>
       <c r="O42" s="1">
         <v>5</v>
@@ -4695,10 +4695,10 @@
         <v>5.4</v>
       </c>
       <c r="T42" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U42" s="1" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="V42" s="1" t="s">
         <v>1</v>
@@ -4722,7 +4722,7 @@
         <v>18.07</v>
       </c>
       <c r="AC42" s="5" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
     </row>
     <row r="43" spans="1:29" x14ac:dyDescent="0.25">
@@ -4739,35 +4739,35 @@
         <v>45179</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>129</v>
+        <v>61</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>48</v>
+        <v>124</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>130</v>
+        <v>62</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="K43" s="1">
         <v>93</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="M43" s="1">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>148</v>
+        <v>73</v>
       </c>
       <c r="O43" s="1">
         <v>4</v>
@@ -4785,13 +4785,13 @@
         <v>6.8</v>
       </c>
       <c r="T43" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U43" s="1" t="s">
-        <v>62</v>
+        <v>137</v>
       </c>
       <c r="V43" s="1" t="s">
-        <v>84</v>
+        <v>30</v>
       </c>
       <c r="W43" s="1">
         <v>45.35</v>
@@ -4812,7 +4812,7 @@
         <v>11.52</v>
       </c>
       <c r="AC43" s="5" t="s">
-        <v>100</v>
+        <v>46</v>
       </c>
     </row>
     <row r="44" spans="1:29" x14ac:dyDescent="0.25">
@@ -4829,35 +4829,35 @@
         <v>45179</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>129</v>
+        <v>61</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>48</v>
+        <v>124</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>130</v>
+        <v>62</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="K44" s="1">
         <v>93</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="M44" s="1">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>148</v>
+        <v>73</v>
       </c>
       <c r="O44" s="1">
         <v>4</v>
@@ -4875,13 +4875,13 @@
         <v>4.8</v>
       </c>
       <c r="T44" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U44" s="1" t="s">
-        <v>63</v>
+        <v>138</v>
       </c>
       <c r="V44" s="1" t="s">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="W44" s="1">
         <v>45.52</v>
@@ -4902,7 +4902,7 @@
         <v>13.72</v>
       </c>
       <c r="AC44" s="5" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
     </row>
     <row r="45" spans="1:29" x14ac:dyDescent="0.25">
@@ -4919,35 +4919,35 @@
         <v>45179</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>129</v>
+        <v>61</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>48</v>
+        <v>124</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>130</v>
+        <v>62</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="K45" s="1">
         <v>93</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="M45" s="1">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
       <c r="N45" s="1" t="s">
-        <v>148</v>
+        <v>73</v>
       </c>
       <c r="O45" s="1">
         <v>4</v>
@@ -4965,13 +4965,13 @@
         <v>6.4</v>
       </c>
       <c r="T45" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U45" s="1" t="s">
-        <v>64</v>
+        <v>139</v>
       </c>
       <c r="V45" s="1" t="s">
-        <v>86</v>
+        <v>32</v>
       </c>
       <c r="W45" s="1">
         <v>44.39</v>
@@ -4992,7 +4992,7 @@
         <v>8</v>
       </c>
       <c r="AC45" s="5" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
     </row>
     <row r="46" spans="1:29" x14ac:dyDescent="0.25">
@@ -5009,35 +5009,35 @@
         <v>45179</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>129</v>
+        <v>61</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>48</v>
+        <v>124</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>130</v>
+        <v>62</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="K46" s="1">
         <v>93</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="M46" s="1">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>148</v>
+        <v>73</v>
       </c>
       <c r="O46" s="1">
         <v>4</v>
@@ -5055,13 +5055,13 @@
         <v>3</v>
       </c>
       <c r="T46" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U46" s="1" t="s">
-        <v>65</v>
+        <v>140</v>
       </c>
       <c r="V46" s="1" t="s">
-        <v>87</v>
+        <v>33</v>
       </c>
       <c r="W46" s="1">
         <v>49.28</v>
@@ -5082,7 +5082,7 @@
         <v>16.32</v>
       </c>
       <c r="AC46" s="5" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
     </row>
     <row r="47" spans="1:29" x14ac:dyDescent="0.25">
@@ -5099,35 +5099,35 @@
         <v>45179</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>129</v>
+        <v>61</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>48</v>
+        <v>124</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>130</v>
+        <v>62</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="K47" s="1">
         <v>93</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="M47" s="1">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>148</v>
+        <v>73</v>
       </c>
       <c r="O47" s="1">
         <v>4</v>
@@ -5145,13 +5145,13 @@
         <v>2.8</v>
       </c>
       <c r="T47" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U47" s="1" t="s">
-        <v>66</v>
+        <v>141</v>
       </c>
       <c r="V47" s="1" t="s">
-        <v>88</v>
+        <v>34</v>
       </c>
       <c r="W47" s="1">
         <v>48.86</v>
@@ -5172,7 +5172,7 @@
         <v>15.69</v>
       </c>
       <c r="AC47" s="5" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
     </row>
     <row r="48" spans="1:29" x14ac:dyDescent="0.25">
@@ -5189,35 +5189,35 @@
         <v>45179</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>129</v>
+        <v>61</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>48</v>
+        <v>124</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>130</v>
+        <v>62</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="K48" s="1">
         <v>93</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="M48" s="1">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>148</v>
+        <v>73</v>
       </c>
       <c r="O48" s="1">
         <v>4</v>
@@ -5235,13 +5235,13 @@
         <v>3.2</v>
       </c>
       <c r="T48" s="1" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="U48" s="1" t="s">
-        <v>67</v>
+        <v>142</v>
       </c>
       <c r="V48" s="1" t="s">
-        <v>89</v>
+        <v>35</v>
       </c>
       <c r="W48" s="1">
         <v>48.33</v>
@@ -5262,7 +5262,7 @@
         <v>8.07</v>
       </c>
       <c r="AC48" s="5" t="s">
-        <v>101</v>
+        <v>47</v>
       </c>
     </row>
     <row r="49" spans="1:29" x14ac:dyDescent="0.25">
@@ -5279,35 +5279,35 @@
         <v>45179</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>129</v>
+        <v>61</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>48</v>
+        <v>124</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>130</v>
+        <v>62</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="K49" s="1">
         <v>93</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="M49" s="1">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>148</v>
+        <v>73</v>
       </c>
       <c r="O49" s="1">
         <v>4</v>
@@ -5325,13 +5325,13 @@
         <v>6.8</v>
       </c>
       <c r="T49" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U49" s="8" t="s">
-        <v>68</v>
+        <v>143</v>
       </c>
       <c r="V49" s="1" t="s">
-        <v>90</v>
+        <v>36</v>
       </c>
       <c r="W49" s="1">
         <v>52.17</v>
@@ -5352,7 +5352,7 @@
         <v>11.4</v>
       </c>
       <c r="AC49" s="5" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
     </row>
     <row r="50" spans="1:29" x14ac:dyDescent="0.25">
@@ -5369,35 +5369,35 @@
         <v>45179</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>129</v>
+        <v>61</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>48</v>
+        <v>124</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>130</v>
+        <v>62</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="K50" s="1">
         <v>93</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="M50" s="1">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>148</v>
+        <v>73</v>
       </c>
       <c r="O50" s="1">
         <v>4</v>
@@ -5415,13 +5415,13 @@
         <v>6</v>
       </c>
       <c r="T50" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U50" s="1" t="s">
-        <v>69</v>
+        <v>144</v>
       </c>
       <c r="V50" s="1" t="s">
-        <v>91</v>
+        <v>37</v>
       </c>
       <c r="W50" s="1">
         <v>50.87</v>
@@ -5442,7 +5442,7 @@
         <v>11.63</v>
       </c>
       <c r="AC50" s="5" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
     </row>
     <row r="51" spans="1:29" x14ac:dyDescent="0.25">
@@ -5459,35 +5459,35 @@
         <v>45179</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>129</v>
+        <v>61</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>48</v>
+        <v>124</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>130</v>
+        <v>62</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="K51" s="1">
         <v>93</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="M51" s="1">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>148</v>
+        <v>73</v>
       </c>
       <c r="O51" s="1">
         <v>4</v>
@@ -5505,13 +5505,13 @@
         <v>5.2</v>
       </c>
       <c r="T51" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U51" s="1" t="s">
-        <v>70</v>
+        <v>145</v>
       </c>
       <c r="V51" s="1" t="s">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="W51" s="1">
         <v>46.01</v>
@@ -5532,7 +5532,7 @@
         <v>9.1</v>
       </c>
       <c r="AC51" s="5" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
     </row>
     <row r="52" spans="1:29" x14ac:dyDescent="0.25">
@@ -5549,35 +5549,35 @@
         <v>45179</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>129</v>
+        <v>61</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>48</v>
+        <v>124</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>130</v>
+        <v>62</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="K52" s="1">
         <v>93</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="M52" s="1">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
       <c r="N52" s="1" t="s">
-        <v>148</v>
+        <v>73</v>
       </c>
       <c r="O52" s="1">
         <v>4</v>
@@ -5595,13 +5595,13 @@
         <v>2</v>
       </c>
       <c r="T52" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U52" s="1" t="s">
-        <v>71</v>
+        <v>146</v>
       </c>
       <c r="V52" s="1" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="W52" s="1">
         <v>54.35</v>
@@ -5622,7 +5622,7 @@
         <v>14.72</v>
       </c>
       <c r="AC52" s="5" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
     </row>
     <row r="53" spans="1:29" x14ac:dyDescent="0.25">
@@ -5639,35 +5639,35 @@
         <v>45179</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>129</v>
+        <v>61</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>48</v>
+        <v>124</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>130</v>
+        <v>62</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="K53" s="1">
         <v>93</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="M53" s="1">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>148</v>
+        <v>73</v>
       </c>
       <c r="O53" s="1">
         <v>5</v>
@@ -5685,13 +5685,13 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="T53" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U53" s="1" t="s">
-        <v>72</v>
+        <v>147</v>
       </c>
       <c r="V53" s="1" t="s">
-        <v>93</v>
+        <v>39</v>
       </c>
       <c r="W53" s="1">
         <v>43.52</v>
@@ -5712,7 +5712,7 @@
         <v>13.15</v>
       </c>
       <c r="AC53" s="5" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
     </row>
     <row r="54" spans="1:29" x14ac:dyDescent="0.25">
@@ -5729,35 +5729,35 @@
         <v>45179</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>129</v>
+        <v>61</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>48</v>
+        <v>124</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>130</v>
+        <v>62</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="K54" s="1">
         <v>93</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="M54" s="1">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
       <c r="N54" s="1" t="s">
-        <v>148</v>
+        <v>73</v>
       </c>
       <c r="O54" s="1">
         <v>4</v>
@@ -5775,13 +5775,13 @@
         <v>3.4</v>
       </c>
       <c r="T54" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U54" s="1" t="s">
-        <v>73</v>
+        <v>148</v>
       </c>
       <c r="V54" s="1" t="s">
-        <v>94</v>
+        <v>40</v>
       </c>
       <c r="W54" s="1">
         <v>52.19</v>
@@ -5802,7 +5802,7 @@
         <v>10.84</v>
       </c>
       <c r="AC54" s="5" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
     </row>
     <row r="55" spans="1:29" x14ac:dyDescent="0.25">
@@ -5819,35 +5819,35 @@
         <v>45179</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>129</v>
+        <v>61</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>48</v>
+        <v>124</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>130</v>
+        <v>62</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="K55" s="1">
         <v>93</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="M55" s="1">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
       <c r="N55" s="1" t="s">
-        <v>148</v>
+        <v>73</v>
       </c>
       <c r="O55" s="1">
         <v>4</v>
@@ -5865,13 +5865,13 @@
         <v>3</v>
       </c>
       <c r="T55" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U55" s="1" t="s">
-        <v>74</v>
+        <v>149</v>
       </c>
       <c r="V55" s="1" t="s">
-        <v>95</v>
+        <v>41</v>
       </c>
       <c r="W55" s="1">
         <v>52.19</v>
@@ -5892,7 +5892,7 @@
         <v>11.23</v>
       </c>
       <c r="AC55" s="5" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
     </row>
     <row r="56" spans="1:29" x14ac:dyDescent="0.25">
@@ -5909,35 +5909,35 @@
         <v>45179</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>129</v>
+        <v>61</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>48</v>
+        <v>124</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>130</v>
+        <v>62</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="K56" s="1">
         <v>93</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="M56" s="1">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
       <c r="N56" s="1" t="s">
-        <v>148</v>
+        <v>73</v>
       </c>
       <c r="O56" s="1">
         <v>5</v>
@@ -5955,13 +5955,13 @@
         <v>7.6</v>
       </c>
       <c r="T56" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U56" s="1" t="s">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="V56" s="1" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="W56" s="1">
         <v>47.93</v>
@@ -5982,7 +5982,7 @@
         <v>18.2</v>
       </c>
       <c r="AC56" s="5" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
     </row>
     <row r="57" spans="1:29" x14ac:dyDescent="0.25">
@@ -5999,35 +5999,35 @@
         <v>45179</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>129</v>
+        <v>61</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>48</v>
+        <v>124</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>130</v>
+        <v>62</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="K57" s="1">
         <v>93</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="M57" s="1">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>148</v>
+        <v>73</v>
       </c>
       <c r="O57" s="1">
         <v>5</v>
@@ -6045,13 +6045,13 @@
         <v>2.8</v>
       </c>
       <c r="T57" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U57" s="1" t="s">
-        <v>76</v>
+        <v>151</v>
       </c>
       <c r="V57" s="1" t="s">
-        <v>96</v>
+        <v>42</v>
       </c>
       <c r="W57" s="1">
         <v>31.58</v>
@@ -6072,7 +6072,7 @@
         <v>13.86</v>
       </c>
       <c r="AC57" s="5" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
     </row>
     <row r="58" spans="1:29" x14ac:dyDescent="0.25">
@@ -6089,35 +6089,35 @@
         <v>45179</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>129</v>
+        <v>61</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>48</v>
+        <v>124</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>130</v>
+        <v>62</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="K58" s="1">
         <v>93</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="M58" s="1">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
       <c r="N58" s="1" t="s">
-        <v>148</v>
+        <v>73</v>
       </c>
       <c r="O58" s="1">
         <v>4</v>
@@ -6135,13 +6135,13 @@
         <v>3.6</v>
       </c>
       <c r="T58" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U58" s="1" t="s">
-        <v>77</v>
+        <v>152</v>
       </c>
       <c r="V58" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="W58" s="1">
         <v>44.73</v>
@@ -6162,7 +6162,7 @@
         <v>17.14</v>
       </c>
       <c r="AC58" s="5" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
     </row>
     <row r="59" spans="1:29" x14ac:dyDescent="0.25">
@@ -6179,35 +6179,35 @@
         <v>45179</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>129</v>
+        <v>61</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>48</v>
+        <v>124</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>130</v>
+        <v>62</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="K59" s="1">
         <v>93</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="M59" s="1">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
       <c r="N59" s="1" t="s">
-        <v>148</v>
+        <v>73</v>
       </c>
       <c r="O59" s="1">
         <v>5</v>
@@ -6225,13 +6225,13 @@
         <v>3</v>
       </c>
       <c r="T59" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U59" s="1" t="s">
-        <v>78</v>
+        <v>153</v>
       </c>
       <c r="V59" s="1" t="s">
-        <v>97</v>
+        <v>43</v>
       </c>
       <c r="W59" s="1">
         <v>36.11</v>
@@ -6252,7 +6252,7 @@
         <v>13.04</v>
       </c>
       <c r="AC59" s="5" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
     </row>
     <row r="60" spans="1:29" x14ac:dyDescent="0.25">
@@ -6269,35 +6269,35 @@
         <v>45179</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>129</v>
+        <v>61</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>48</v>
+        <v>124</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>130</v>
+        <v>62</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="K60" s="1">
         <v>93</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="M60" s="1">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
       <c r="N60" s="1" t="s">
-        <v>148</v>
+        <v>73</v>
       </c>
       <c r="O60" s="1">
         <v>4</v>
@@ -6315,13 +6315,13 @@
         <v>6.4</v>
       </c>
       <c r="T60" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U60" s="1" t="s">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="V60" s="1" t="s">
-        <v>98</v>
+        <v>44</v>
       </c>
       <c r="W60" s="1">
         <v>46.42</v>
@@ -6342,7 +6342,7 @@
         <v>11.83</v>
       </c>
       <c r="AC60" s="5" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
     </row>
     <row r="61" spans="1:29" x14ac:dyDescent="0.25">
@@ -6359,35 +6359,35 @@
         <v>45179</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>129</v>
+        <v>61</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>48</v>
+        <v>124</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>130</v>
+        <v>62</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="K61" s="1">
         <v>93</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="M61" s="1">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="N61" s="1" t="s">
-        <v>148</v>
+        <v>73</v>
       </c>
       <c r="O61" s="1">
         <v>5</v>
@@ -6405,13 +6405,13 @@
         <v>7.6</v>
       </c>
       <c r="T61" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U61" s="1" t="s">
-        <v>80</v>
+        <v>155</v>
       </c>
       <c r="V61" s="1" t="s">
-        <v>99</v>
+        <v>45</v>
       </c>
       <c r="W61" s="1">
         <v>47.04</v>
@@ -6432,7 +6432,7 @@
         <v>18.66</v>
       </c>
       <c r="AC61" s="5" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
     </row>
     <row r="62" spans="1:29" x14ac:dyDescent="0.25">
@@ -6449,35 +6449,35 @@
         <v>45179</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>129</v>
+        <v>61</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>48</v>
+        <v>124</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>130</v>
+        <v>62</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="K62" s="1">
         <v>93</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="M62" s="1">
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>148</v>
+        <v>73</v>
       </c>
       <c r="O62" s="1">
         <v>5</v>
@@ -6495,13 +6495,13 @@
         <v>3.4</v>
       </c>
       <c r="T62" s="1" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="U62" s="1" t="s">
-        <v>102</v>
+        <v>156</v>
       </c>
       <c r="V62" s="1" t="s">
-        <v>124</v>
+        <v>56</v>
       </c>
       <c r="W62" s="1">
         <v>38.92</v>
@@ -6522,7 +6522,7 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="AC62" s="5" t="s">
-        <v>119</v>
+        <v>51</v>
       </c>
     </row>
     <row r="63" spans="1:29" x14ac:dyDescent="0.25">
@@ -6539,35 +6539,35 @@
         <v>45179</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>129</v>
+        <v>61</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>48</v>
+        <v>124</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>130</v>
+        <v>62</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="K63" s="1">
         <v>93</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="M63" s="1">
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
       <c r="N63" s="1" t="s">
-        <v>148</v>
+        <v>73</v>
       </c>
       <c r="O63" s="1">
         <v>5</v>
@@ -6585,13 +6585,13 @@
         <v>4</v>
       </c>
       <c r="T63" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U63" s="1" t="s">
-        <v>103</v>
+        <v>157</v>
       </c>
       <c r="V63" s="1" t="s">
-        <v>81</v>
+        <v>27</v>
       </c>
       <c r="W63" s="1">
         <v>50.52</v>
@@ -6612,7 +6612,7 @@
         <v>9.3000000000000007</v>
       </c>
       <c r="AC63" s="5" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
     </row>
     <row r="64" spans="1:29" x14ac:dyDescent="0.25">
@@ -6629,35 +6629,35 @@
         <v>45179</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>129</v>
+        <v>61</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>48</v>
+        <v>124</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>130</v>
+        <v>62</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="K64" s="1">
         <v>93</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="M64" s="1">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
       <c r="N64" s="1" t="s">
-        <v>148</v>
+        <v>73</v>
       </c>
       <c r="O64" s="1">
         <v>5</v>
@@ -6675,13 +6675,13 @@
         <v>3</v>
       </c>
       <c r="T64" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U64" s="1" t="s">
-        <v>104</v>
+        <v>158</v>
       </c>
       <c r="V64" s="1" t="s">
-        <v>93</v>
+        <v>39</v>
       </c>
       <c r="W64" s="1">
         <v>43.41</v>
@@ -6702,7 +6702,7 @@
         <v>4.49</v>
       </c>
       <c r="AC64" s="5" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
     </row>
     <row r="65" spans="1:29" x14ac:dyDescent="0.25">
@@ -6719,35 +6719,35 @@
         <v>45179</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>129</v>
+        <v>61</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>48</v>
+        <v>124</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>130</v>
+        <v>62</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="K65" s="1">
         <v>93</v>
       </c>
       <c r="L65" s="1" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="M65" s="1">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
       <c r="N65" s="1" t="s">
-        <v>148</v>
+        <v>73</v>
       </c>
       <c r="O65" s="1">
         <v>5</v>
@@ -6765,13 +6765,13 @@
         <v>2.8</v>
       </c>
       <c r="T65" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U65" s="1" t="s">
-        <v>105</v>
+        <v>159</v>
       </c>
       <c r="V65" s="1" t="s">
-        <v>123</v>
+        <v>55</v>
       </c>
       <c r="W65" s="1">
         <v>40.76</v>
@@ -6792,7 +6792,7 @@
         <v>16.399999999999999</v>
       </c>
       <c r="AC65" s="5" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
     </row>
     <row r="66" spans="1:29" x14ac:dyDescent="0.25">
@@ -6809,35 +6809,35 @@
         <v>45179</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>129</v>
+        <v>61</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>48</v>
+        <v>124</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>130</v>
+        <v>62</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="K66" s="1">
         <v>93</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="M66" s="1">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
       <c r="N66" s="1" t="s">
-        <v>148</v>
+        <v>73</v>
       </c>
       <c r="O66" s="1">
         <v>5</v>
@@ -6855,13 +6855,13 @@
         <v>4.2</v>
       </c>
       <c r="T66" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U66" s="1" t="s">
-        <v>106</v>
+        <v>160</v>
       </c>
       <c r="V66" s="1" t="s">
-        <v>122</v>
+        <v>54</v>
       </c>
       <c r="W66" s="1">
         <v>39.549999999999997</v>
@@ -6882,7 +6882,7 @@
         <v>15.62</v>
       </c>
       <c r="AC66" s="5" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
     </row>
     <row r="67" spans="1:29" x14ac:dyDescent="0.25">
@@ -6899,35 +6899,35 @@
         <v>45179</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>129</v>
+        <v>61</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>48</v>
+        <v>124</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>130</v>
+        <v>62</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="K67" s="1">
         <v>93</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="M67" s="1">
         <f t="shared" si="0"/>
         <v>66</v>
       </c>
       <c r="N67" s="1" t="s">
-        <v>148</v>
+        <v>73</v>
       </c>
       <c r="O67" s="1">
         <v>5</v>
@@ -6945,10 +6945,10 @@
         <v>3</v>
       </c>
       <c r="T67" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U67" s="1" t="s">
-        <v>107</v>
+        <v>161</v>
       </c>
       <c r="V67" s="1" t="s">
         <v>1</v>
@@ -6972,7 +6972,7 @@
         <v>22.04</v>
       </c>
       <c r="AC67" s="5" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
     </row>
     <row r="68" spans="1:29" x14ac:dyDescent="0.25">
@@ -6989,35 +6989,35 @@
         <v>45179</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>129</v>
+        <v>61</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>48</v>
+        <v>124</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>130</v>
+        <v>62</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="K68" s="1">
         <v>93</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="M68" s="1">
         <f t="shared" si="0"/>
         <v>67</v>
       </c>
       <c r="N68" s="1" t="s">
-        <v>148</v>
+        <v>73</v>
       </c>
       <c r="O68" s="1">
         <v>3</v>
@@ -7035,10 +7035,10 @@
         <v>4</v>
       </c>
       <c r="T68" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U68" s="1" t="s">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="V68" s="1" t="s">
         <v>1</v>
@@ -7062,7 +7062,7 @@
         <v>0.66</v>
       </c>
       <c r="AC68" s="5" t="s">
-        <v>118</v>
+        <v>50</v>
       </c>
     </row>
     <row r="69" spans="1:29" x14ac:dyDescent="0.25">
@@ -7079,35 +7079,35 @@
         <v>45179</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>129</v>
+        <v>61</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>48</v>
+        <v>124</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>130</v>
+        <v>62</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="K69" s="1">
         <v>93</v>
       </c>
       <c r="L69" s="1" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="M69" s="1">
         <f t="shared" si="0"/>
         <v>68</v>
       </c>
       <c r="N69" s="1" t="s">
-        <v>148</v>
+        <v>73</v>
       </c>
       <c r="O69" s="1">
         <v>3</v>
@@ -7125,10 +7125,10 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="T69" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U69" s="1" t="s">
-        <v>109</v>
+        <v>163</v>
       </c>
       <c r="V69" s="1" t="s">
         <v>1</v>
@@ -7152,7 +7152,7 @@
         <v>2.09</v>
       </c>
       <c r="AC69" s="5" t="s">
-        <v>118</v>
+        <v>50</v>
       </c>
     </row>
     <row r="70" spans="1:29" x14ac:dyDescent="0.25">
@@ -7169,35 +7169,35 @@
         <v>45179</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>129</v>
+        <v>61</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>48</v>
+        <v>124</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>130</v>
+        <v>62</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="K70" s="1">
         <v>93</v>
       </c>
       <c r="L70" s="1" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="M70" s="1">
         <f t="shared" si="0"/>
         <v>69</v>
       </c>
       <c r="N70" s="1" t="s">
-        <v>148</v>
+        <v>73</v>
       </c>
       <c r="O70" s="1">
         <v>3</v>
@@ -7215,10 +7215,10 @@
         <v>6.8</v>
       </c>
       <c r="T70" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U70" s="1" t="s">
-        <v>110</v>
+        <v>164</v>
       </c>
       <c r="V70" s="1" t="s">
         <v>1</v>
@@ -7242,7 +7242,7 @@
         <v>4.26</v>
       </c>
       <c r="AC70" s="5" t="s">
-        <v>118</v>
+        <v>50</v>
       </c>
     </row>
     <row r="71" spans="1:29" x14ac:dyDescent="0.25">
@@ -7259,35 +7259,35 @@
         <v>45179</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>129</v>
+        <v>61</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>48</v>
+        <v>124</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>130</v>
+        <v>62</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="K71" s="1">
         <v>93</v>
       </c>
       <c r="L71" s="1" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="M71" s="1">
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
       <c r="N71" s="1" t="s">
-        <v>148</v>
+        <v>73</v>
       </c>
       <c r="O71" s="1">
         <v>4</v>
@@ -7305,13 +7305,13 @@
         <v>5</v>
       </c>
       <c r="T71" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U71" s="1" t="s">
-        <v>111</v>
+        <v>165</v>
       </c>
       <c r="V71" s="1" t="s">
-        <v>120</v>
+        <v>52</v>
       </c>
       <c r="W71" s="1">
         <v>42.89</v>
@@ -7332,7 +7332,7 @@
         <v>8.3699999999999992</v>
       </c>
       <c r="AC71" s="5" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
     </row>
     <row r="72" spans="1:29" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -7349,35 +7349,35 @@
         <v>45179</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>129</v>
+        <v>61</v>
       </c>
       <c r="F72" s="9" t="s">
-        <v>48</v>
+        <v>124</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>130</v>
+        <v>62</v>
       </c>
       <c r="H72" s="9" t="s">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="I72" s="9" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="J72" s="9" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="K72" s="9">
         <v>93</v>
       </c>
       <c r="L72" s="9" t="s">
-        <v>139</v>
+        <v>64</v>
       </c>
       <c r="M72" s="9">
         <f t="shared" si="0"/>
         <v>71</v>
       </c>
       <c r="N72" s="1" t="s">
-        <v>148</v>
+        <v>73</v>
       </c>
       <c r="O72" s="9">
         <v>4</v>
@@ -7395,10 +7395,10 @@
         <v>0</v>
       </c>
       <c r="T72" s="9" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="U72" s="9" t="s">
-        <v>112</v>
+        <v>166</v>
       </c>
       <c r="V72" s="9" t="s">
         <v>1</v>
@@ -7422,7 +7422,7 @@
         <v>5.29</v>
       </c>
       <c r="AC72" s="11" t="s">
-        <v>121</v>
+        <v>53</v>
       </c>
     </row>
     <row r="73" spans="1:29" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -7439,34 +7439,34 @@
         <v>45179</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>129</v>
+        <v>61</v>
       </c>
       <c r="F73" s="9" t="s">
-        <v>48</v>
+        <v>124</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>130</v>
+        <v>62</v>
       </c>
       <c r="H73" s="9" t="s">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="I73" s="9" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="J73" s="9" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="K73" s="9">
         <v>93</v>
       </c>
       <c r="L73" s="9" t="s">
-        <v>140</v>
+        <v>65</v>
       </c>
       <c r="M73" s="9">
         <v>71</v>
       </c>
       <c r="N73" s="1" t="s">
-        <v>148</v>
+        <v>73</v>
       </c>
       <c r="O73" s="9">
         <v>4</v>
@@ -7484,10 +7484,10 @@
         <v>0</v>
       </c>
       <c r="T73" s="9" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="U73" s="9" t="s">
-        <v>112</v>
+        <v>166</v>
       </c>
       <c r="V73" s="9" t="s">
         <v>1</v>
@@ -7511,7 +7511,7 @@
         <v>3.68</v>
       </c>
       <c r="AC73" s="11" t="s">
-        <v>121</v>
+        <v>53</v>
       </c>
     </row>
     <row r="74" spans="1:29" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -7528,34 +7528,34 @@
         <v>45179</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>129</v>
+        <v>61</v>
       </c>
       <c r="F74" s="9" t="s">
-        <v>48</v>
+        <v>124</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>130</v>
+        <v>62</v>
       </c>
       <c r="H74" s="9" t="s">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="I74" s="9" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="J74" s="9" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="K74" s="9">
         <v>93</v>
       </c>
       <c r="L74" s="9" t="s">
-        <v>139</v>
+        <v>64</v>
       </c>
       <c r="M74" s="9">
         <v>72</v>
       </c>
       <c r="N74" s="1" t="s">
-        <v>148</v>
+        <v>73</v>
       </c>
       <c r="O74" s="9">
         <v>4</v>
@@ -7573,13 +7573,13 @@
         <v>0</v>
       </c>
       <c r="T74" s="9" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="U74" s="9" t="s">
-        <v>113</v>
+        <v>167</v>
       </c>
       <c r="V74" s="9" t="s">
-        <v>125</v>
+        <v>57</v>
       </c>
       <c r="W74" s="9">
         <v>50.44</v>
@@ -7600,7 +7600,7 @@
         <v>10.09</v>
       </c>
       <c r="AC74" s="11" t="s">
-        <v>116</v>
+        <v>48</v>
       </c>
     </row>
     <row r="75" spans="1:29" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -7617,35 +7617,35 @@
         <v>45179</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>129</v>
+        <v>61</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>48</v>
+        <v>124</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>130</v>
+        <v>62</v>
       </c>
       <c r="H75" s="9" t="s">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="I75" s="9" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="J75" s="9" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="K75" s="9">
         <v>93</v>
       </c>
       <c r="L75" s="9" t="s">
-        <v>140</v>
+        <v>65</v>
       </c>
       <c r="M75" s="9">
         <f>(M72+1)</f>
         <v>72</v>
       </c>
       <c r="N75" s="1" t="s">
-        <v>148</v>
+        <v>73</v>
       </c>
       <c r="O75" s="9">
         <v>4</v>
@@ -7663,13 +7663,13 @@
         <v>0</v>
       </c>
       <c r="T75" s="9" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="U75" s="9" t="s">
-        <v>113</v>
+        <v>167</v>
       </c>
       <c r="V75" s="9" t="s">
-        <v>125</v>
+        <v>57</v>
       </c>
       <c r="W75" s="9">
         <v>49.17</v>
@@ -7690,7 +7690,7 @@
         <v>10.65</v>
       </c>
       <c r="AC75" s="11" t="s">
-        <v>116</v>
+        <v>48</v>
       </c>
     </row>
     <row r="76" spans="1:29" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -7707,34 +7707,34 @@
         <v>45179</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>129</v>
+        <v>61</v>
       </c>
       <c r="F76" s="9" t="s">
-        <v>48</v>
+        <v>124</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>130</v>
+        <v>62</v>
       </c>
       <c r="H76" s="9" t="s">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="I76" s="9" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="J76" s="9" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="K76" s="9">
         <v>93</v>
       </c>
       <c r="L76" s="9" t="s">
-        <v>139</v>
+        <v>64</v>
       </c>
       <c r="M76" s="9">
         <v>73</v>
       </c>
       <c r="N76" s="1" t="s">
-        <v>148</v>
+        <v>73</v>
       </c>
       <c r="O76" s="9">
         <v>4</v>
@@ -7752,13 +7752,13 @@
         <v>0</v>
       </c>
       <c r="T76" s="9" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="U76" s="9" t="s">
-        <v>114</v>
+        <v>168</v>
       </c>
       <c r="V76" s="9" t="s">
-        <v>126</v>
+        <v>58</v>
       </c>
       <c r="W76" s="9">
         <v>55.48</v>
@@ -7779,7 +7779,7 @@
         <v>7.77</v>
       </c>
       <c r="AC76" s="11" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
     </row>
     <row r="77" spans="1:29" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -7796,35 +7796,35 @@
         <v>45179</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>129</v>
+        <v>61</v>
       </c>
       <c r="F77" s="9" t="s">
-        <v>48</v>
+        <v>124</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>130</v>
+        <v>62</v>
       </c>
       <c r="H77" s="9" t="s">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="I77" s="9" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="J77" s="9" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="K77" s="9">
         <v>93</v>
       </c>
       <c r="L77" s="9" t="s">
-        <v>140</v>
+        <v>65</v>
       </c>
       <c r="M77" s="9">
         <f>(M75+1)</f>
         <v>73</v>
       </c>
       <c r="N77" s="1" t="s">
-        <v>148</v>
+        <v>73</v>
       </c>
       <c r="O77" s="9">
         <v>4</v>
@@ -7842,13 +7842,13 @@
         <v>0</v>
       </c>
       <c r="T77" s="9" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="U77" s="9" t="s">
-        <v>114</v>
+        <v>168</v>
       </c>
       <c r="V77" s="9" t="s">
-        <v>126</v>
+        <v>58</v>
       </c>
       <c r="W77" s="9">
         <v>55.58</v>
@@ -7869,7 +7869,7 @@
         <v>8.94</v>
       </c>
       <c r="AC77" s="11" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
     </row>
     <row r="78" spans="1:29" x14ac:dyDescent="0.25">
@@ -7886,38 +7886,38 @@
         <v>45179</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>129</v>
+        <v>61</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>48</v>
+        <v>124</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>130</v>
+        <v>62</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="K78" s="1">
         <v>93</v>
       </c>
       <c r="L78" s="1" t="s">
-        <v>138</v>
+        <v>63</v>
       </c>
       <c r="M78" s="1">
         <f t="shared" ref="M78" si="1">(M77+1)</f>
         <v>74</v>
       </c>
       <c r="N78" s="1" t="s">
-        <v>148</v>
+        <v>73</v>
       </c>
       <c r="O78" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P78" s="1">
         <v>128.94</v>
@@ -7932,10 +7932,10 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="T78" s="1" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="U78" s="1" t="s">
-        <v>115</v>
+        <v>169</v>
       </c>
       <c r="V78" s="1" t="s">
         <v>1</v>
@@ -7959,7 +7959,7 @@
         <v>5.97</v>
       </c>
       <c r="AC78" s="5" t="s">
-        <v>117</v>
+        <v>49</v>
       </c>
     </row>
     <row r="79" spans="1:29" x14ac:dyDescent="0.25">
